--- a/earlywarning-pom/earlywarning-config/src/baf-instances/33_Inst_Analysis_Unit_BIR.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/33_Inst_Analysis_Unit_BIR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="142">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -465,6 +465,12 @@
   </si>
   <si>
     <t>BIR_IND_225</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIR_IND_55</t>
+  </si>
+  <si>
+    <t>BIR_IND_55</t>
   </si>
 </sst>
 </file>
@@ -1165,10 +1171,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2125,6 +2131,23 @@
       </c>
       <c r="F56" t="s">
         <v>139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" t="s">
+        <v>140</v>
+      </c>
+      <c r="C57" t="s">
+        <v>140</v>
+      </c>
+      <c r="E57" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/33_Inst_Analysis_Unit_BIR.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/33_Inst_Analysis_Unit_BIR.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -125,9 +125,6 @@
     <t>CustomerInfoFormula</t>
   </si>
   <si>
-    <t>EXPOSURE</t>
-  </si>
-  <si>
     <t>COUNTERPARTY_BIR_IND_221</t>
   </si>
   <si>
@@ -471,23 +468,19 @@
   </si>
   <si>
     <t>BIR_IND_55</t>
+  </si>
+  <si>
+    <t>BIR_EXPOSURE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -512,13 +505,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -542,22 +528,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Variable" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -589,7 +572,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="1026" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -630,14 +619,20 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2050" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="2050" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -673,14 +668,20 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvPr id="2" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -721,14 +722,20 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvPr id="3" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -769,14 +776,20 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvPr id="4" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1141,25 +1154,25 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
         <v>37</v>
       </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>38</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>39</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>40</v>
-      </c>
-      <c r="I3" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1173,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,7 +1195,7 @@
     <col min="2" max="3" width="44.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -1220,16 +1233,16 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -1237,50 +1250,50 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>35</v>
       </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1288,16 +1301,16 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1305,16 +1318,16 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1322,16 +1335,16 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1339,16 +1352,16 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1356,16 +1369,16 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1373,16 +1386,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1390,16 +1403,16 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1407,16 +1420,16 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1424,16 +1437,16 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1441,16 +1454,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1458,16 +1471,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1475,16 +1488,16 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1492,16 +1505,16 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1509,16 +1522,16 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1526,16 +1539,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1543,16 +1556,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1560,16 +1573,16 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1577,16 +1590,16 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1594,16 +1607,16 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1611,16 +1624,16 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1628,16 +1641,16 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1645,16 +1658,16 @@
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1662,16 +1675,16 @@
         <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1679,16 +1692,16 @@
         <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1696,16 +1709,16 @@
         <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1713,16 +1726,16 @@
         <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1730,16 +1743,16 @@
         <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1747,16 +1760,16 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1764,16 +1777,16 @@
         <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1781,16 +1794,16 @@
         <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1798,16 +1811,16 @@
         <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1815,16 +1828,16 @@
         <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1832,16 +1845,16 @@
         <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1849,16 +1862,16 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1866,16 +1879,16 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1883,16 +1896,16 @@
         <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1900,16 +1913,16 @@
         <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1917,16 +1930,16 @@
         <v>20</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1934,16 +1947,16 @@
         <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1951,16 +1964,16 @@
         <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1968,16 +1981,16 @@
         <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F47" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1985,16 +1998,16 @@
         <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2002,16 +2015,16 @@
         <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2019,16 +2032,16 @@
         <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2036,16 +2049,16 @@
         <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2053,16 +2066,16 @@
         <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2070,16 +2083,16 @@
         <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2087,16 +2100,16 @@
         <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2104,16 +2117,16 @@
         <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F55" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2121,16 +2134,16 @@
         <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F56" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2138,16 +2151,16 @@
         <v>20</v>
       </c>
       <c r="B57" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57" t="s">
+        <v>139</v>
+      </c>
+      <c r="E57" t="s">
+        <v>27</v>
+      </c>
+      <c r="F57" t="s">
         <v>140</v>
-      </c>
-      <c r="C57" t="s">
-        <v>140</v>
-      </c>
-      <c r="E57" t="s">
-        <v>28</v>
-      </c>
-      <c r="F57" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
